--- a/src/main/resources/TestData/TestData.xlsx
+++ b/src/main/resources/TestData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SureshChirra\Desktop\IBM_Projects\Selenium_WS\in.ibm.chirra.saf\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B64159-F010-4E7D-BDC6-DF349F66C939}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E3D05D-2939-42EA-A277-2AD9D0ADDA19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData_1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>URL</t>
   </si>
@@ -82,13 +82,19 @@
     <t>Test_1</t>
   </si>
   <si>
-    <t>http://www.gmail.com</t>
-  </si>
-  <si>
     <t>http://www.google.com</t>
   </si>
   <si>
     <t>Test_2</t>
+  </si>
+  <si>
+    <t>http://admin.akshara.edu.pushvastech.in/login.php</t>
+  </si>
+  <si>
+    <t>9885</t>
+  </si>
+  <si>
+    <t>123</t>
   </si>
 </sst>
 </file>
@@ -447,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -457,7 +463,7 @@
     <col min="2" max="2" width="13.08984375" customWidth="1"/>
     <col min="3" max="3" width="10.36328125" customWidth="1"/>
     <col min="4" max="4" width="15.1796875" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="45.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -497,13 +503,13 @@
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -516,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28839FCE-54FD-49DE-952B-A355CFED813C}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -547,7 +553,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
@@ -556,10 +562,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>

--- a/src/main/resources/TestData/TestData.xlsx
+++ b/src/main/resources/TestData/TestData.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SureshChirra\Desktop\IBM_Projects\Selenium_WS\in.ibm.chirra.saf\src\main\resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E3D05D-2939-42EA-A277-2AD9D0ADDA19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{AB84637B-67C3-4CB7-890F-2D656D6A11C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="19460" windowHeight="11060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData_1" sheetId="1" r:id="rId1"/>
     <sheet name="TestData_2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:N17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>URL</t>
   </si>
@@ -80,9 +76,6 @@
   </si>
   <si>
     <t>Test_1</t>
-  </si>
-  <si>
-    <t>http://www.google.com</t>
   </si>
   <si>
     <t>Test_2</t>
@@ -453,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -503,13 +496,13 @@
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -522,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28839FCE-54FD-49DE-952B-A355CFED813C}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -553,7 +546,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
@@ -562,16 +555,16 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">

--- a/src/main/resources/TestData/TestData.xlsx
+++ b/src/main/resources/TestData/TestData.xlsx
@@ -3,16 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{AB84637B-67C3-4CB7-890F-2D656D6A11C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SureshChirra\Desktop\IBM_Projects\Selenium_WS\in.ibm.chirra.saf\src\main\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2F38B8-0C2C-4DB3-9447-D90FA1A836CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="19460" windowHeight="11060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData_1" sheetId="1" r:id="rId1"/>
     <sheet name="TestData_2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>URL</t>
   </si>
@@ -88,6 +92,9 @@
   </si>
   <si>
     <t>123</t>
+  </si>
+  <si>
+    <t>http://gmail.com</t>
   </si>
 </sst>
 </file>
@@ -516,7 +523,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -558,7 +565,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
